--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_Lapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_Lapdat.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="75">
   <si>
     <t>STT</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>Thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16363</t>
   </si>
 </sst>
 </file>
@@ -661,15 +664,30 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -679,35 +697,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1015,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1048,43 +1051,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -1129,58 +1132,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -1205,23 +1208,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="67" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1245,13 +1248,13 @@
         <v>64</v>
       </c>
       <c r="H6" s="64"/>
-      <c r="I6" s="65">
-        <v>125212203114.16701</v>
+      <c r="I6" s="50" t="s">
+        <v>74</v>
       </c>
       <c r="J6" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="83" t="s">
+      <c r="K6" s="69" t="s">
         <v>71</v>
       </c>
       <c r="L6" s="40"/>
@@ -1275,7 +1278,7 @@
         <v>67</v>
       </c>
       <c r="T6" s="66"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1287,26 +1290,54 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
+      <c r="B7" s="37">
+        <v>44510</v>
+      </c>
+      <c r="C7" s="37">
+        <v>44510</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="83">
+        <v>868926033939171</v>
+      </c>
       <c r="F7" s="55"/>
-      <c r="G7" s="38"/>
+      <c r="G7" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="68"/>
+      <c r="I7" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" s="69" t="s">
+        <v>71</v>
+      </c>
       <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="M7" s="40" t="s">
+        <v>72</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="4"/>
+      <c r="O7" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="T7" s="66"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1335,7 +1366,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1364,7 +1395,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1393,7 +1424,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1422,7 +1453,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1451,7 +1482,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1482,7 +1513,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1511,7 +1542,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1540,7 +1571,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1569,7 +1600,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1752,7 +1783,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -2029,7 +2060,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -2157,7 +2188,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -2221,7 +2252,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -2800,13 +2831,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2817,6 +2841,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2860,43 +2891,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -2941,58 +2972,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -3017,23 +3048,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3059,7 +3090,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3090,7 +3121,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3119,7 +3150,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3148,7 +3179,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3177,7 +3208,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3206,7 +3237,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3235,7 +3266,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3266,7 +3297,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3295,7 +3326,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3324,7 +3355,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3353,7 +3384,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4584,6 +4615,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4595,13 +4633,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4645,43 +4676,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -4726,58 +4757,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -4802,23 +4833,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4844,7 +4875,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -4875,7 +4906,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4904,7 +4935,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4933,7 +4964,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -4962,7 +4993,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4991,7 +5022,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5020,7 +5051,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5051,7 +5082,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5080,7 +5111,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5109,7 +5140,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5138,7 +5169,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6369,6 +6400,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6379,13 +6417,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_Lapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_Lapdat.xlsx
@@ -9,27 +9,30 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="TG102V" sheetId="35" r:id="rId1"/>
+    <sheet name="TG102LE" sheetId="36" r:id="rId1"/>
     <sheet name="TG102SE" sheetId="34" r:id="rId2"/>
-    <sheet name="TongThang" sheetId="25" r:id="rId3"/>
+    <sheet name="TG102V" sheetId="35" r:id="rId3"/>
+    <sheet name="TongThang" sheetId="25" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102LE!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102SE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102V!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">TG102LE!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="1">TG102SE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">TG102V!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="2">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="2">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="3">TongThang!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="84">
   <si>
     <t>STT</t>
   </si>
@@ -260,6 +263,33 @@
   <si>
     <t>125.212.203.114,16363</t>
   </si>
+  <si>
+    <t>sim</t>
+  </si>
+  <si>
+    <t>LE.2.00.---27.200525</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16565</t>
+  </si>
+  <si>
+    <t>Thiết bị treo</t>
+  </si>
+  <si>
+    <t>LE.3.00.---01.200923</t>
+  </si>
+  <si>
+    <t>Thiết bị oxi hóa chân linh kiện</t>
+  </si>
+  <si>
+    <t>Không khắc phục được</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>W.2.00.---21.200630</t>
+  </si>
 </sst>
 </file>
 
@@ -461,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -670,6 +700,36 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -682,35 +742,11 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1018,8 +1054,1844 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
+    <col min="7" max="7" width="17" style="20" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="20" customWidth="1"/>
+    <col min="10" max="10" width="53" style="20" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
+    <col min="13" max="13" width="58" style="20" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="20" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="20" customWidth="1"/>
+    <col min="16" max="16" width="37.7109375" style="20" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="20" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="20" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="20" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="20"/>
+    <col min="21" max="21" width="30.5703125" style="20" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="20" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="20" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="47"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="71"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="27"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="27"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="73"/>
+      <c r="M4" s="78" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="84" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="27"/>
+      <c r="U4" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="48"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="77"/>
+      <c r="B5" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="73"/>
+      <c r="K5" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="84"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
+      <c r="W5" s="48"/>
+    </row>
+    <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="37">
+        <v>44518</v>
+      </c>
+      <c r="C6" s="37">
+        <v>44518</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="39">
+        <v>868183034723747</v>
+      </c>
+      <c r="F6" s="55"/>
+      <c r="G6" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="64"/>
+      <c r="I6" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="4"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="71"/>
+    </row>
+    <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="37">
+        <v>44518</v>
+      </c>
+      <c r="C7" s="37">
+        <v>44518</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="39">
+        <v>867717030471511</v>
+      </c>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="38"/>
+      <c r="I7" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="4"/>
+      <c r="T7" s="71"/>
+      <c r="U7" s="81"/>
+      <c r="V7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="71"/>
+    </row>
+    <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="81"/>
+      <c r="V8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="71"/>
+    </row>
+    <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="71"/>
+      <c r="U9" s="81"/>
+      <c r="V9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="71"/>
+    </row>
+    <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="71"/>
+      <c r="U10" s="81"/>
+      <c r="V10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="71"/>
+    </row>
+    <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="71"/>
+      <c r="U11" s="81"/>
+      <c r="V11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="71"/>
+    </row>
+    <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="71"/>
+      <c r="U12" s="80" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="71"/>
+    </row>
+    <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="81"/>
+      <c r="V13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="71"/>
+    </row>
+    <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="71"/>
+      <c r="U14" s="81"/>
+      <c r="V14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="71"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="81"/>
+      <c r="V15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="71"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>11</v>
+      </c>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="82"/>
+      <c r="V16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="71"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>12</v>
+      </c>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="71"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="71"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>13</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="14"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>14</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="49"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>15</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>2</v>
+      </c>
+      <c r="W20" s="14"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>16</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="14"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>17</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="14"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>18</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="14"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>19</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="14"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>20</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="49"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>21</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="10">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="14"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>22</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="10">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="14"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>23</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="10">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="14"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>24</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="10">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="14"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>25</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="10">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="14"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>26</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="10">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="14"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>27</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="10">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="14"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>28</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="10">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="14"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>29</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="10">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="14"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>30</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="10">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>2</v>
+      </c>
+      <c r="W35" s="14"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>31</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="10">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="14"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>32</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="10">
+        <f>SUM(V26:V36)</f>
+        <v>2</v>
+      </c>
+      <c r="W37" s="14"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>33</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="14"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>34</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="14"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>35</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="10">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="14"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>36</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="10">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="14"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>37</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="14"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>38</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="14"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>39</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>40</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>41</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>42</v>
+      </c>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>43</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="35">
+        <f>COUNTIF(J9:J20,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>44</v>
+      </c>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="46"/>
+      <c r="V49" s="46"/>
+      <c r="W49" s="46"/>
+      <c r="X49" s="33"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="29">
+        <v>45</v>
+      </c>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="32"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="45"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="35"/>
+      <c r="U50" s="46"/>
+      <c r="V50" s="46"/>
+      <c r="W50" s="46"/>
+      <c r="X50" s="33"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>46</v>
+      </c>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="35"/>
+      <c r="U51" s="46"/>
+      <c r="V51" s="46"/>
+      <c r="W51" s="46"/>
+      <c r="X51" s="33"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>47</v>
+      </c>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="35"/>
+      <c r="U52" s="46"/>
+      <c r="V52" s="46"/>
+      <c r="W52" s="46"/>
+      <c r="X52" s="33"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>48</v>
+      </c>
+      <c r="B53" s="33"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="33"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="35"/>
+      <c r="U53" s="46"/>
+      <c r="V53" s="46"/>
+      <c r="W53" s="46"/>
+      <c r="X53" s="33"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>49</v>
+      </c>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="33"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="33"/>
+      <c r="Q54" s="33"/>
+      <c r="R54" s="33"/>
+      <c r="S54" s="33"/>
+      <c r="T54" s="35"/>
+      <c r="U54" s="46"/>
+      <c r="V54" s="46"/>
+      <c r="W54" s="46"/>
+      <c r="X54" s="33"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>50</v>
+      </c>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="33"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="33"/>
+      <c r="S55" s="33"/>
+      <c r="T55" s="36"/>
+      <c r="U55" s="46"/>
+      <c r="V55" s="46"/>
+      <c r="W55" s="46"/>
+      <c r="X55" s="33"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U56" s="25"/>
+      <c r="V56" s="25"/>
+      <c r="W56" s="25"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U57" s="25"/>
+      <c r="V57" s="25"/>
+      <c r="W57" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X57"/>
+  <sheetViews>
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1051,43 +2923,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="68" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -1132,216 +3004,160 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="80" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
-      <c r="B5" s="67" t="s">
+      <c r="A5" s="77"/>
+      <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="67" t="s">
+      <c r="F5" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="67" t="s">
+      <c r="G5" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="67" t="s">
+      <c r="H5" s="53" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
-      <c r="K5" s="67" t="s">
+      <c r="J5" s="73"/>
+      <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="67" t="s">
+      <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="37">
-        <v>44510</v>
-      </c>
-      <c r="C6" s="37">
-        <v>44510</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="39">
-        <v>866192037804851</v>
-      </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38" t="s">
-        <v>64</v>
-      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="38"/>
       <c r="H6" s="64"/>
-      <c r="I6" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="J6" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="K6" s="69" t="s">
-        <v>71</v>
-      </c>
+      <c r="I6" s="60"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="40"/>
       <c r="L6" s="40"/>
-      <c r="M6" s="40" t="s">
-        <v>72</v>
-      </c>
+      <c r="M6" s="40"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="R6" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="T6" s="66"/>
-      <c r="U6" s="70" t="s">
+      <c r="O6" s="40"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="66"/>
+      <c r="W6" s="54"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="37">
-        <v>44510</v>
-      </c>
-      <c r="C7" s="37">
-        <v>44510</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="83">
-        <v>868926033939171</v>
-      </c>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39"/>
       <c r="F7" s="55"/>
-      <c r="G7" s="38" t="s">
-        <v>64</v>
-      </c>
+      <c r="G7" s="38"/>
       <c r="H7" s="38"/>
-      <c r="I7" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="J7" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="K7" s="69" t="s">
-        <v>71</v>
-      </c>
+      <c r="I7" s="60"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
       <c r="L7" s="40"/>
-      <c r="M7" s="40" t="s">
-        <v>72</v>
-      </c>
+      <c r="M7" s="40"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="R7" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="T7" s="66"/>
-      <c r="U7" s="71"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="66"/>
+      <c r="W7" s="54"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -1365,12 +3181,12 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="66"/>
-      <c r="U8" s="71"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="66"/>
+      <c r="W8" s="54"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1394,12 +3210,12 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="66"/>
-      <c r="U9" s="71"/>
+      <c r="T9" s="54"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="66"/>
+      <c r="W9" s="54"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -1423,12 +3239,12 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="71"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="66"/>
+      <c r="W10" s="54"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -1452,12 +3268,12 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="71"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="66"/>
+      <c r="W11" s="54"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -1481,14 +3297,14 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="70" t="s">
+      <c r="T12" s="54"/>
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="66"/>
+      <c r="W12" s="54"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -1512,12 +3328,12 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="66"/>
-      <c r="U13" s="71"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="66"/>
+      <c r="W13" s="54"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -1541,12 +3357,12 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="66"/>
-      <c r="U14" s="71"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="66"/>
+      <c r="W14" s="54"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -1571,11 +3387,11 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="66"/>
+      <c r="W15" s="54"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -1600,11 +3416,11 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="66"/>
+      <c r="W16" s="54"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -1629,9 +3445,9 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="66"/>
+      <c r="U17" s="54"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="66"/>
+      <c r="W17" s="54"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -1683,7 +3499,7 @@
       <c r="R19" s="38"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="67" t="s">
+      <c r="U19" s="53" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
@@ -1783,7 +3599,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -1864,7 +3680,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="67" t="s">
+      <c r="U25" s="53" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
@@ -2060,7 +3876,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -2188,7 +4004,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -2252,7 +4068,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -2830,10 +4646,11 @@
       <c r="W57" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
@@ -2854,12 +4671,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S10"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2891,43 +4708,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -2972,218 +4789,330 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="80" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
-      <c r="B5" s="53" t="s">
+      <c r="A5" s="77"/>
+      <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="67" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
-      <c r="K5" s="53" t="s">
+      <c r="J5" s="73"/>
+      <c r="K5" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="53" t="s">
+      <c r="L5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="38"/>
+      <c r="B6" s="37">
+        <v>44510</v>
+      </c>
+      <c r="C6" s="37">
+        <v>44510</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="39">
+        <v>866192037804851</v>
+      </c>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="H6" s="64"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="I6" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>72</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="70" t="s">
+      <c r="O6" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="T6" s="66"/>
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="54"/>
+      <c r="W6" s="66"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
+      <c r="B7" s="37">
+        <v>44510</v>
+      </c>
+      <c r="C7" s="37">
+        <v>44510</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="72">
+        <v>868926033939171</v>
+      </c>
       <c r="F7" s="55"/>
-      <c r="G7" s="38"/>
+      <c r="G7" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="I7" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>72</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="54"/>
-      <c r="U7" s="71"/>
+      <c r="O7" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="T7" s="66"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="54"/>
+      <c r="W7" s="66"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
+      <c r="B8" s="37">
+        <v>44518</v>
+      </c>
+      <c r="C8" s="37">
+        <v>44518</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="39">
+        <v>868926033990687</v>
+      </c>
       <c r="F8" s="55"/>
-      <c r="G8" s="38"/>
+      <c r="G8" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="H8" s="13"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="1"/>
+      <c r="I8" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="L8" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>72</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="71"/>
+      <c r="O8" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="T8" s="66"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="54"/>
+      <c r="W8" s="66"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="38"/>
+      <c r="B9" s="37">
+        <v>44518</v>
+      </c>
+      <c r="C9" s="37">
+        <v>44518</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="39">
+        <v>868926033990794</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="50"/>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="K9" s="40"/>
       <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="M9" s="40" t="s">
+        <v>81</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="O9" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S9" s="4"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="71"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="54"/>
+      <c r="W9" s="66"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -3207,12 +5136,12 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="71"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="54"/>
+      <c r="W10" s="66"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -3236,12 +5165,12 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="71"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="54"/>
+      <c r="W11" s="66"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -3265,14 +5194,14 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="70" t="s">
+      <c r="T12" s="66"/>
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="54"/>
+      <c r="W12" s="66"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -3296,12 +5225,12 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="71"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="54"/>
+      <c r="W13" s="66"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -3325,12 +5254,12 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="71"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="54"/>
+      <c r="W14" s="66"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -3355,11 +5284,11 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="54"/>
+      <c r="W15" s="66"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -3384,11 +5313,11 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="54"/>
+      <c r="W16" s="66"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -3413,9 +5342,9 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="54"/>
+      <c r="U17" s="66"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="54"/>
+      <c r="W17" s="66"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -3467,7 +5396,7 @@
       <c r="R19" s="38"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="53" t="s">
+      <c r="U19" s="67" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
@@ -3535,7 +5464,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -3567,7 +5496,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -3648,7 +5577,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="53" t="s">
+      <c r="U25" s="67" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
@@ -3844,7 +5773,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -3940,7 +5869,7 @@
       </c>
       <c r="V34" s="10">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34" s="14"/>
     </row>
@@ -3972,7 +5901,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -4036,7 +5965,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4154,7 +6083,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="14"/>
     </row>
@@ -4614,7 +6543,7 @@
       <c r="W57" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="17">
     <mergeCell ref="U6:U11"/>
     <mergeCell ref="U12:U16"/>
     <mergeCell ref="P4:P5"/>
@@ -4625,7 +6554,6 @@
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
@@ -4639,7 +6567,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
@@ -4676,39 +6604,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
       <c r="E2" s="68" t="s">
         <v>68</v>
       </c>
@@ -4757,58 +6685,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="80" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -4833,23 +6761,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4875,7 +6803,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -4906,7 +6834,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4935,7 +6863,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4964,7 +6892,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -4993,7 +6921,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5022,7 +6950,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5051,7 +6979,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5082,7 +7010,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5111,7 +7039,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5140,7 +7068,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5169,7 +7097,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6400,13 +8328,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6417,6 +8338,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_Lapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_Lapdat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang11\2.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang11\2.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="96">
   <si>
     <t>STT</t>
   </si>
@@ -289,6 +289,42 @@
   </si>
   <si>
     <t>W.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>Còn BH</t>
+  </si>
+  <si>
+    <t>22/11/21</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Thiết bị hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16969</t>
+  </si>
+  <si>
+    <t>LE.2.00.---28.200624</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>W.2.00.---19.200527</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,16767</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>LK,NCFW</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,16363</t>
   </si>
 </sst>
 </file>
@@ -709,7 +745,19 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -730,20 +778,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1054,8 +1090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView showZeros="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1087,39 +1123,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
       <c r="E2" s="71" t="s">
         <v>68</v>
       </c>
@@ -1168,58 +1204,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="70" t="s">
         <v>1</v>
       </c>
@@ -1244,23 +1280,23 @@
       <c r="I5" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="70" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1312,7 +1348,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="71"/>
-      <c r="U6" s="80" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1369,7 +1405,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="71"/>
-      <c r="U7" s="81"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1379,26 +1415,56 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="B8" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="39">
+        <v>868183037796237</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>84</v>
+      </c>
       <c r="H8" s="38"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="I8" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N8" s="51"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="O8" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="71"/>
-      <c r="U8" s="81"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1427,7 +1493,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="71"/>
-      <c r="U9" s="81"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1456,7 +1522,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="71"/>
-      <c r="U10" s="81"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1485,7 +1551,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="71"/>
-      <c r="U11" s="81"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1514,7 +1580,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="71"/>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1545,7 +1611,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="71"/>
-      <c r="U13" s="81"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1574,7 +1640,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="71"/>
-      <c r="U14" s="81"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1603,7 +1669,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="81"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1632,7 +1698,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="82"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1751,7 +1817,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -2220,7 +2286,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -2284,7 +2350,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -2863,11 +2929,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="U6:U11"/>
     <mergeCell ref="A1:V1"/>
@@ -2880,6 +2941,11 @@
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2923,39 +2989,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
       <c r="E2" s="85" t="s">
         <v>69</v>
       </c>
@@ -3004,58 +3070,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -3080,23 +3146,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3122,7 +3188,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="80" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3153,7 +3219,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="81"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3182,7 +3248,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="81"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3211,7 +3277,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="81"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3240,7 +3306,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="81"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3269,7 +3335,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="81"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3298,7 +3364,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3329,7 +3395,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="81"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3358,7 +3424,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="81"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3387,7 +3453,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="81"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3416,7 +3482,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="82"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4647,6 +4713,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4658,13 +4731,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4675,8 +4741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4708,39 +4774,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
       <c r="E2" s="68" t="s">
         <v>69</v>
       </c>
@@ -4789,58 +4855,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -4865,23 +4931,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="67" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4937,7 +5003,7 @@
         <v>67</v>
       </c>
       <c r="T6" s="66"/>
-      <c r="U6" s="80" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -4998,7 +5064,7 @@
         <v>67</v>
       </c>
       <c r="T7" s="66"/>
-      <c r="U7" s="81"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5055,7 +5121,7 @@
         <v>67</v>
       </c>
       <c r="T8" s="66"/>
-      <c r="U8" s="81"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5108,7 +5174,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="81"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5118,26 +5184,54 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="38"/>
+      <c r="B10" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="39">
+        <v>868926033933745</v>
+      </c>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38" t="s">
+        <v>84</v>
+      </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="40"/>
+      <c r="I10" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="M10" s="40" t="s">
+        <v>93</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
+      <c r="O10" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>94</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="81"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5147,26 +5241,54 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="38"/>
+      <c r="B11" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="39">
+        <v>868345035625714</v>
+      </c>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38" t="s">
+        <v>84</v>
+      </c>
       <c r="H11" s="38"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
+      <c r="I11" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>93</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
+      <c r="O11" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>94</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="81"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5176,26 +5298,52 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
+      <c r="B12" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="39">
+        <v>868345035591841</v>
+      </c>
       <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="G12" s="38" t="s">
+        <v>84</v>
+      </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="60"/>
+      <c r="I12" s="60" t="s">
+        <v>92</v>
+      </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="K12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L12" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="M12" s="40" t="s">
+        <v>87</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="38"/>
+      <c r="O12" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5226,7 +5374,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="81"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5255,7 +5403,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="81"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5284,7 +5432,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="81"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5313,7 +5461,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="82"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5432,7 +5580,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -5496,7 +5644,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -5773,7 +5921,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -5901,7 +6049,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -5933,7 +6081,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -5965,7 +6113,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -6544,13 +6692,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6561,6 +6702,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6604,39 +6752,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
       <c r="E2" s="68" t="s">
         <v>68</v>
       </c>
@@ -6685,58 +6833,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -6761,23 +6909,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6803,7 +6951,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="80" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6834,7 +6982,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="81"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -6863,7 +7011,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="81"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -6892,7 +7040,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="81"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -6921,7 +7069,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="81"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -6950,7 +7098,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="81"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -6979,7 +7127,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7010,7 +7158,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="81"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7039,7 +7187,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="81"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7068,7 +7216,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="81"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7097,7 +7245,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="82"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8328,6 +8476,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8338,13 +8493,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_Lapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_Lapdat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang11\2.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang11\2.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="98">
   <si>
     <t>STT</t>
   </si>
@@ -325,6 +325,12 @@
   </si>
   <si>
     <t>Lock: 125.212.203.114,16363</t>
+  </si>
+  <si>
+    <t>Restore thiết bị</t>
+  </si>
+  <si>
+    <t>Test lại thiết bị</t>
   </si>
 </sst>
 </file>
@@ -745,19 +751,13 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -780,6 +780,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1123,39 +1129,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
       <c r="E2" s="71" t="s">
         <v>68</v>
       </c>
@@ -1204,58 +1210,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="84" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="70" t="s">
         <v>1</v>
       </c>
@@ -1280,23 +1286,23 @@
       <c r="I5" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="70" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="77"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1348,7 +1354,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="71"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1405,7 +1411,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="71"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1464,7 +1470,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="71"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1493,7 +1499,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="71"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1522,7 +1528,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="71"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1551,7 +1557,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="71"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1580,7 +1586,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="71"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1611,7 +1617,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="71"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1640,7 +1646,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="71"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1669,7 +1675,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1698,7 +1704,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="83"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2929,6 +2935,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="U6:U11"/>
     <mergeCell ref="A1:V1"/>
@@ -2941,11 +2952,6 @@
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2989,39 +2995,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
       <c r="E2" s="85" t="s">
         <v>69</v>
       </c>
@@ -3070,58 +3076,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="84" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -3146,23 +3152,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="77"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3188,7 +3194,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3219,7 +3225,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3248,7 +3254,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3277,7 +3283,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3306,7 +3312,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3335,7 +3341,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3364,7 +3370,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3395,7 +3401,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3424,7 +3430,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3453,7 +3459,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3482,7 +3488,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="83"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4713,13 +4719,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4731,6 +4730,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4742,7 +4748,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C13" activeCellId="1" sqref="B13:B15 C13:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4774,39 +4780,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
       <c r="E2" s="68" t="s">
         <v>69</v>
       </c>
@@ -4855,58 +4861,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="84" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -4931,23 +4937,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="67" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="77"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5003,7 +5009,7 @@
         <v>67</v>
       </c>
       <c r="T6" s="66"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5064,7 +5070,7 @@
         <v>67</v>
       </c>
       <c r="T7" s="66"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5121,7 +5127,7 @@
         <v>67</v>
       </c>
       <c r="T8" s="66"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5174,7 +5180,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5231,7 +5237,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5288,7 +5294,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5343,7 +5349,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5355,26 +5361,52 @@
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="38"/>
+      <c r="B13" s="37">
+        <v>44526</v>
+      </c>
+      <c r="C13" s="37">
+        <v>44526</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="39">
+        <v>868926033966752</v>
+      </c>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38" t="s">
+        <v>84</v>
+      </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="50"/>
+      <c r="I13" s="60" t="s">
+        <v>74</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
+      <c r="L13" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="M13" s="40" t="s">
+        <v>93</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="4"/>
+      <c r="O13" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R13" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="T13" s="66"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5384,26 +5416,50 @@
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
+      <c r="B14" s="37">
+        <v>44526</v>
+      </c>
+      <c r="C14" s="37">
+        <v>44526</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="39">
+        <v>863586032855268</v>
+      </c>
       <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="G14" s="38" t="s">
+        <v>84</v>
+      </c>
       <c r="H14" s="13"/>
-      <c r="I14" s="50"/>
+      <c r="I14" s="60" t="s">
+        <v>74</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="1"/>
+      <c r="L14" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="38"/>
+      <c r="O14" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S14" s="4"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5413,26 +5469,52 @@
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="38"/>
+      <c r="B15" s="37">
+        <v>44526</v>
+      </c>
+      <c r="C15" s="37">
+        <v>44526</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="39">
+        <v>868926033921187</v>
+      </c>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38" t="s">
+        <v>84</v>
+      </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="1"/>
+      <c r="I15" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="K15" s="1"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
+      <c r="L15" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="M15" s="40" t="s">
+        <v>96</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="38"/>
+      <c r="O15" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="38" t="s">
+        <v>36</v>
+      </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5461,7 +5543,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="83"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5580,7 +5662,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -5644,7 +5726,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -5921,7 +6003,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -6017,7 +6099,7 @@
       </c>
       <c r="V34" s="10">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W34" s="14"/>
     </row>
@@ -6049,7 +6131,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -6081,7 +6163,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -6113,7 +6195,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -6692,6 +6774,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6702,13 +6791,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6752,39 +6834,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
       <c r="E2" s="68" t="s">
         <v>68</v>
       </c>
@@ -6833,58 +6915,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="84" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -6909,23 +6991,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="77"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6951,7 +7033,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6982,7 +7064,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7011,7 +7093,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7040,7 +7122,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7069,7 +7151,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7098,7 +7180,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7127,7 +7209,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7158,7 +7240,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7187,7 +7269,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7216,7 +7298,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7245,7 +7327,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="83"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8476,13 +8558,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8493,6 +8568,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_Lapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_Lapdat.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="103">
   <si>
     <t>STT</t>
   </si>
@@ -331,6 +331,21 @@
   </si>
   <si>
     <t>Test lại thiết bị</t>
+  </si>
+  <si>
+    <t>22/11/2021</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi connector</t>
+  </si>
+  <si>
+    <t>Xử lý phần cứng, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>VI.2.00.---19.200527</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16767</t>
   </si>
 </sst>
 </file>
@@ -751,13 +766,19 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -780,12 +801,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1097,7 +1112,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1129,39 +1144,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
       <c r="E2" s="71" t="s">
         <v>68</v>
       </c>
@@ -1210,58 +1225,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="80" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="70" t="s">
         <v>1</v>
       </c>
@@ -1286,23 +1301,23 @@
       <c r="I5" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="70" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1354,7 +1369,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="71"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1411,7 +1426,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="71"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1422,10 +1437,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="D8" s="38" t="s">
         <v>44</v>
@@ -1470,7 +1485,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="71"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1480,26 +1495,54 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="B9" s="37">
+        <v>44530</v>
+      </c>
+      <c r="C9" s="37">
+        <v>44530</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="39">
+        <v>867717030416722</v>
+      </c>
+      <c r="F9" s="55"/>
+      <c r="G9" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="I9" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>100</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="O9" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>66</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="71"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1528,7 +1571,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="71"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1557,7 +1600,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="71"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1586,7 +1629,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="71"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1617,7 +1660,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="71"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1646,7 +1689,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="71"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1675,7 +1718,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1704,7 +1747,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="83"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1887,7 +1930,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -2164,7 +2207,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -2292,7 +2335,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -2356,7 +2399,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -2935,11 +2978,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="U6:U11"/>
     <mergeCell ref="A1:V1"/>
@@ -2952,6 +2990,11 @@
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2995,39 +3038,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
       <c r="E2" s="85" t="s">
         <v>69</v>
       </c>
@@ -3076,58 +3119,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="80" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -3152,23 +3195,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3194,7 +3237,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3225,7 +3268,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3254,7 +3297,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3283,7 +3326,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3312,7 +3355,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3341,7 +3384,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3370,7 +3413,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3401,7 +3444,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3430,7 +3473,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3459,7 +3502,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3488,7 +3531,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="83"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4719,6 +4762,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4730,13 +4780,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4747,8 +4790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" activeCellId="1" sqref="B13:B15 C13:C15"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17:S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4780,39 +4823,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
       <c r="E2" s="68" t="s">
         <v>69</v>
       </c>
@@ -4861,58 +4904,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="80" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -4937,23 +4980,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="67" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5009,7 +5052,7 @@
         <v>67</v>
       </c>
       <c r="T6" s="66"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5070,7 +5113,7 @@
         <v>67</v>
       </c>
       <c r="T7" s="66"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5127,7 +5170,7 @@
         <v>67</v>
       </c>
       <c r="T8" s="66"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5180,7 +5223,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5237,7 +5280,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5294,7 +5337,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5349,7 +5392,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5406,7 +5449,7 @@
         <v>67</v>
       </c>
       <c r="T13" s="66"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5459,7 +5502,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5514,7 +5557,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5524,26 +5567,56 @@
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
+      <c r="B16" s="37">
+        <v>44530</v>
+      </c>
+      <c r="C16" s="37">
+        <v>44530</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="39">
+        <v>866192037796636</v>
+      </c>
       <c r="F16" s="55"/>
-      <c r="G16" s="38"/>
+      <c r="G16" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
+      <c r="I16" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="J16" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L16" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="M16" s="40" t="s">
+        <v>93</v>
+      </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="4"/>
+      <c r="O16" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R16" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="T16" s="14"/>
-      <c r="U16" s="83"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5553,24 +5626,52 @@
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
+      <c r="B17" s="37">
+        <v>44530</v>
+      </c>
+      <c r="C17" s="37">
+        <v>44530</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="39">
+        <v>869627031846066</v>
+      </c>
       <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
+      <c r="G17" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="1"/>
+      <c r="I17" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
+      <c r="M17" s="40" t="s">
+        <v>93</v>
+      </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="4"/>
+      <c r="O17" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R17" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="T17" s="14"/>
       <c r="U17" s="66"/>
       <c r="V17" s="15"/>
@@ -5726,7 +5827,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -6003,7 +6104,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -6131,7 +6232,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -6195,7 +6296,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -6774,13 +6875,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6791,6 +6885,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6834,39 +6935,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
       <c r="E2" s="68" t="s">
         <v>68</v>
       </c>
@@ -6915,58 +7016,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="80" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -6991,23 +7092,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7033,7 +7134,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7064,7 +7165,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7093,7 +7194,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7122,7 +7223,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7151,7 +7252,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7180,7 +7281,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7209,7 +7310,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7240,7 +7341,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7269,7 +7370,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7298,7 +7399,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7327,7 +7428,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="83"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8558,6 +8659,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8568,13 +8676,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_Lapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_Lapdat.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang11\2.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang11\2.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="36" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="103">
   <si>
     <t>STT</t>
   </si>
@@ -766,19 +766,13 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -801,6 +795,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1111,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showZeros="0" topLeftCell="K2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1144,39 +1144,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
       <c r="E2" s="71" t="s">
         <v>68</v>
       </c>
@@ -1225,58 +1225,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="84" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="70" t="s">
         <v>1</v>
       </c>
@@ -1301,23 +1301,23 @@
       <c r="I5" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="70" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="77"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="71"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="71"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="71"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="71"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1571,7 +1571,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="71"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1600,7 +1600,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="71"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1629,7 +1629,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="71"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1660,7 +1660,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="71"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1689,7 +1689,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="71"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1718,7 +1718,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1747,7 +1747,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="83"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2978,6 +2978,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="U6:U11"/>
     <mergeCell ref="A1:V1"/>
@@ -2990,11 +2995,6 @@
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3038,39 +3038,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
       <c r="E2" s="85" t="s">
         <v>69</v>
       </c>
@@ -3119,58 +3119,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="84" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -3195,23 +3195,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="77"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3237,7 +3237,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3268,7 +3268,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3297,7 +3297,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3326,7 +3326,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3355,7 +3355,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3384,7 +3384,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3413,7 +3413,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3444,7 +3444,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3473,7 +3473,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3502,7 +3502,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3531,7 +3531,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="83"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4762,13 +4762,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4780,6 +4773,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4790,8 +4790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17:S17"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4823,39 +4823,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
       <c r="E2" s="68" t="s">
         <v>69</v>
       </c>
@@ -4904,58 +4904,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="84" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -4980,23 +4980,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="67" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="77"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5052,7 +5052,7 @@
         <v>67</v>
       </c>
       <c r="T6" s="66"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5113,7 +5113,7 @@
         <v>67</v>
       </c>
       <c r="T7" s="66"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>67</v>
       </c>
       <c r="T8" s="66"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5223,7 +5223,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5280,7 +5280,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5337,7 +5337,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5392,7 +5392,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5449,7 +5449,7 @@
         <v>67</v>
       </c>
       <c r="T13" s="66"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5502,7 +5502,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5557,7 +5557,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>67</v>
       </c>
       <c r="T16" s="14"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="83"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6875,6 +6875,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6885,13 +6892,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6902,8 +6902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6935,39 +6935,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
       <c r="E2" s="68" t="s">
         <v>68</v>
       </c>
@@ -7016,58 +7016,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="84" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -7092,49 +7092,75 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="77"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
+      <c r="B6" s="37">
+        <v>44518</v>
+      </c>
+      <c r="C6" s="37">
+        <v>44518</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="39">
+        <v>868183034723747</v>
+      </c>
+      <c r="F6" s="55"/>
+      <c r="G6" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="H6" s="64"/>
-      <c r="I6" s="60"/>
+      <c r="I6" s="60" t="s">
+        <v>77</v>
+      </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="1"/>
+      <c r="K6" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7146,26 +7172,52 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
+      <c r="B7" s="37">
+        <v>44518</v>
+      </c>
+      <c r="C7" s="37">
+        <v>44518</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="39">
+        <v>867717030471511</v>
+      </c>
       <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
+      <c r="G7" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="50"/>
+      <c r="I7" s="50" t="s">
+        <v>77</v>
+      </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="K7" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7175,26 +7227,56 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="B8" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="39">
+        <v>868183037796237</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>84</v>
+      </c>
       <c r="H8" s="38"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="I8" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N8" s="51"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="O8" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7204,26 +7286,54 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="B9" s="37">
+        <v>44530</v>
+      </c>
+      <c r="C9" s="37">
+        <v>44530</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="39">
+        <v>867717030416722</v>
+      </c>
+      <c r="F9" s="55"/>
+      <c r="G9" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="I9" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>100</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="O9" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>66</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7233,26 +7343,56 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
+      <c r="B10" s="37">
+        <v>44510</v>
+      </c>
+      <c r="C10" s="37">
+        <v>44510</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="39">
+        <v>866192037804851</v>
+      </c>
       <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
+      <c r="G10" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="64"/>
+      <c r="I10" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="M10" s="40" t="s">
+        <v>72</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="4"/>
+      <c r="O10" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="T10" s="43"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7262,26 +7402,56 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="B11" s="37">
+        <v>44510</v>
+      </c>
+      <c r="C11" s="37">
+        <v>44510</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="72">
+        <v>868926033939171</v>
+      </c>
+      <c r="F11" s="55"/>
+      <c r="G11" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="H11" s="38"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="4"/>
+      <c r="I11" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="T11" s="43"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7291,26 +7461,54 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="B12" s="37">
+        <v>44518</v>
+      </c>
+      <c r="C12" s="37">
+        <v>44518</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="39">
+        <v>868926033990687</v>
+      </c>
+      <c r="F12" s="55"/>
+      <c r="G12" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="M12" s="40" t="s">
+        <v>72</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="4"/>
+      <c r="O12" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="T12" s="43"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7322,26 +7520,50 @@
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="B13" s="37">
+        <v>44518</v>
+      </c>
+      <c r="C13" s="37">
+        <v>44518</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="39">
+        <v>868926033990794</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="40"/>
       <c r="L13" s="40"/>
-      <c r="M13" s="1"/>
+      <c r="M13" s="40" t="s">
+        <v>81</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="10"/>
+      <c r="O13" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7351,26 +7573,54 @@
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
+      <c r="B14" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="39">
+        <v>868926033933745</v>
+      </c>
       <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="G14" s="38" t="s">
+        <v>84</v>
+      </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
+      <c r="I14" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="M14" s="40" t="s">
+        <v>93</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="38"/>
+      <c r="O14" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R14" s="38" t="s">
+        <v>94</v>
+      </c>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7380,26 +7630,54 @@
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
+      <c r="B15" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="39">
+        <v>868345035625714</v>
+      </c>
       <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
+      <c r="G15" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="38"/>
+      <c r="I15" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="L15" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="M15" s="40" t="s">
+        <v>93</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="38"/>
+      <c r="O15" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R15" s="38" t="s">
+        <v>94</v>
+      </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7409,26 +7687,52 @@
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
+      <c r="B16" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="39">
+        <v>868345035591841</v>
+      </c>
       <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
+      <c r="G16" s="38" t="s">
+        <v>84</v>
+      </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="I16" s="60" t="s">
+        <v>92</v>
+      </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
+      <c r="K16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L16" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="M16" s="40" t="s">
+        <v>87</v>
+      </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="38"/>
+      <c r="O16" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="83"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -7438,24 +7742,50 @@
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
+      <c r="B17" s="37">
+        <v>44526</v>
+      </c>
+      <c r="C17" s="37">
+        <v>44526</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="39">
+        <v>868926033966752</v>
+      </c>
       <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
+      <c r="G17" s="38" t="s">
+        <v>84</v>
+      </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
+      <c r="I17" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="40"/>
+      <c r="L17" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="M17" s="40" t="s">
+        <v>93</v>
+      </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="4"/>
+      <c r="O17" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R17" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="T17" s="14"/>
       <c r="U17" s="43"/>
       <c r="V17" s="15"/>
@@ -7465,23 +7795,47 @@
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
+      <c r="B18" s="37">
+        <v>44526</v>
+      </c>
+      <c r="C18" s="37">
+        <v>44526</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="39">
+        <v>863586032855268</v>
+      </c>
       <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="G18" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="13"/>
+      <c r="I18" s="60" t="s">
+        <v>74</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="10"/>
+      <c r="L18" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="N18" s="1"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="10"/>
+      <c r="O18" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S18" s="4"/>
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
@@ -7492,23 +7846,49 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
+      <c r="B19" s="37">
+        <v>44526</v>
+      </c>
+      <c r="C19" s="37">
+        <v>44526</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="39">
+        <v>868926033921187</v>
+      </c>
       <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
+      <c r="G19" s="38" t="s">
+        <v>84</v>
+      </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="I19" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="L19" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="M19" s="40" t="s">
+        <v>96</v>
+      </c>
       <c r="N19" s="1"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="10"/>
+      <c r="O19" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R19" s="38" t="s">
+        <v>36</v>
+      </c>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
       <c r="U19" s="44" t="s">
@@ -7523,31 +7903,61 @@
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
+      <c r="B20" s="37">
+        <v>44530</v>
+      </c>
+      <c r="C20" s="37">
+        <v>44530</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="39">
+        <v>866192037796636</v>
+      </c>
+      <c r="F20" s="55"/>
+      <c r="G20" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="I20" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="J20" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L20" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="M20" s="40" t="s">
+        <v>93</v>
+      </c>
       <c r="N20" s="1"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="4"/>
+      <c r="O20" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R20" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="T20" s="14"/>
       <c r="U20" s="10" t="s">
         <v>17</v>
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -7555,31 +7965,59 @@
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="39"/>
+      <c r="B21" s="37">
+        <v>44530</v>
+      </c>
+      <c r="C21" s="37">
+        <v>44530</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="39">
+        <v>869627031846066</v>
+      </c>
       <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
+      <c r="G21" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="I21" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="J21" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40" t="s">
+        <v>93</v>
+      </c>
       <c r="N21" s="1"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="4"/>
+      <c r="O21" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R21" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="T21" s="14"/>
       <c r="U21" s="10" t="s">
         <v>49</v>
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -7611,7 +8049,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -7888,7 +8326,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -7984,7 +8422,7 @@
       </c>
       <c r="V34" s="10">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W34" s="14"/>
     </row>
@@ -8016,7 +8454,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -8048,7 +8486,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -8080,7 +8518,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -8198,7 +8636,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="14"/>
     </row>
@@ -8659,13 +9097,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8676,6 +9107,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
